--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1461.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1461.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.368686165994616</v>
+        <v>1.136775493621826</v>
       </c>
       <c r="B1">
-        <v>1.611897365945358</v>
+        <v>2.50940990447998</v>
       </c>
       <c r="C1">
-        <v>2.098253716384537</v>
+        <v>3.990776062011719</v>
       </c>
       <c r="D1">
-        <v>3.831797417395741</v>
+        <v>3.586139678955078</v>
       </c>
       <c r="E1">
-        <v>0.7717463646774836</v>
+        <v>1.232507705688477</v>
       </c>
     </row>
   </sheetData>
